--- a/Task2.xlsx
+++ b/Task2.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29016"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB13BABB-1376-4A49-8F27-A8D73A0D5F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{452FEB32-F879-45EE-844E-02DAE2ED0A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Task2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,15 +31,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Task2:</t>
   </si>
   <si>
-    <t xml:space="preserve">how to use COUNTIFS function. </t>
-  </si>
-  <si>
     <t>Examples of COUNTIFS and SUMIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maching </t>
+  </si>
+  <si>
+    <t>aff</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>speaker</t>
+  </si>
+  <si>
+    <t>headphone</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>sum range</t>
+  </si>
+  <si>
+    <t>criteria</t>
+  </si>
+  <si>
+    <t>ig</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>samsung1</t>
+  </si>
+  <si>
+    <t>samsung2</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>sony</t>
+  </si>
+  <si>
+    <t>haier</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>CountIfS</t>
+  </si>
+  <si>
+    <t>COUNTIFS(C10:H16,"&lt;50")</t>
+  </si>
+  <si>
+    <t>SUMIF</t>
   </si>
 </sst>
 </file>
@@ -61,15 +127,33 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -77,14 +161,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -430,29 +574,404 @@
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:13" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="L3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>77</v>
+      </c>
+      <c r="D6" s="6">
+        <v>47</v>
+      </c>
+      <c r="E6" s="6">
+        <v>70</v>
+      </c>
+      <c r="F6" s="6">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6">
+        <v>71</v>
+      </c>
+      <c r="H6" s="7">
+        <v>285</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="8">
+        <v>18</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6">
+        <v>51</v>
+      </c>
+      <c r="D7" s="6">
+        <v>96</v>
+      </c>
+      <c r="E7" s="6">
+        <v>50</v>
+      </c>
+      <c r="F7" s="6">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6">
+        <v>133</v>
+      </c>
+      <c r="H7" s="7">
+        <v>342</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="8">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6">
+        <v>96</v>
+      </c>
+      <c r="D8" s="6">
+        <v>75</v>
+      </c>
+      <c r="E8" s="6">
+        <v>79</v>
+      </c>
+      <c r="F8" s="6">
+        <v>21</v>
+      </c>
+      <c r="G8" s="6">
+        <v>161</v>
+      </c>
+      <c r="H8" s="7">
+        <v>432</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="8">
+        <v>18</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6">
+        <v>47</v>
+      </c>
+      <c r="D9" s="6">
+        <v>80</v>
+      </c>
+      <c r="E9" s="6">
+        <v>75</v>
+      </c>
+      <c r="F9" s="6">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6">
+        <v>83</v>
+      </c>
+      <c r="H9" s="7">
+        <v>297</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="8">
+        <v>19</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6">
+        <v>64</v>
+      </c>
+      <c r="D10" s="6">
+        <v>84</v>
+      </c>
+      <c r="E10" s="6">
+        <v>44</v>
+      </c>
+      <c r="F10" s="6">
+        <v>40</v>
+      </c>
+      <c r="G10" s="6">
+        <v>77</v>
+      </c>
+      <c r="H10" s="7">
+        <v>309</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="8">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6">
+        <v>57</v>
+      </c>
+      <c r="D11" s="6">
+        <v>95</v>
+      </c>
+      <c r="E11" s="6">
+        <v>68</v>
+      </c>
+      <c r="F11" s="6">
+        <v>40</v>
+      </c>
+      <c r="G11" s="6">
+        <v>153</v>
+      </c>
+      <c r="H11" s="7">
+        <v>413</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="8">
+        <v>25</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6">
+        <v>69</v>
+      </c>
+      <c r="D12" s="6">
+        <v>92</v>
+      </c>
+      <c r="E12" s="6">
+        <v>61</v>
+      </c>
+      <c r="F12" s="6">
+        <v>24</v>
+      </c>
+      <c r="G12" s="6">
+        <v>155</v>
+      </c>
+      <c r="H12" s="7">
+        <v>401</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="8">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="6">
+        <v>44</v>
+      </c>
+      <c r="L15" s="6">
+        <v>18</v>
+      </c>
+      <c r="M15" s="6">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>